--- a/Data/EC/NIT-8301339101.xlsx
+++ b/Data/EC/NIT-8301339101.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3D0F5B9-FDE2-43EB-A7EC-8617B92A7ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C438DB09-4B2D-4E9B-8636-9BE89D1DD6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5D8A3D6B-8866-424B-A63F-DB2DAE9F9310}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C7CB09FE-D05D-4860-A492-7B5278958B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,52 +65,70 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047381092</t>
+  </si>
+  <si>
+    <t>MAIQUI GUERRERO FLOREZ</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>8647028</t>
+  </si>
+  <si>
+    <t>YESITH ENRIQUE LUGO PEýA</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>1033098595</t>
+  </si>
+  <si>
+    <t>KEINER DAVID MORALES OCHOA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>80504109</t>
+  </si>
+  <si>
+    <t>TEOFILO MORALES LEON</t>
+  </si>
+  <si>
     <t>1143385023</t>
   </si>
   <si>
     <t>DANIEL DE JESUS MARTINEZ TOVAR</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2302</t>
   </si>
   <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1047381092</t>
-  </si>
-  <si>
-    <t>MAIQUI GUERRERO FLOREZ</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>51922981</t>
   </si>
   <si>
     <t>ALICIA VELOZA MORALES</t>
   </si>
   <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -524,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8132702-7B1D-532B-6011-607564F71DF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B162D1C-451C-E717-FBE9-6078F234AB27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723A14C5-279C-4944-8011-8BC2BD0541C2}">
-  <dimension ref="B2:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32228DAB-B134-406A-B081-B5F440AB6AFF}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -900,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -945,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -977,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>491414</v>
+        <v>737546</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,14 +1011,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
         <v>10</v>
@@ -1030,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1067,19 +1085,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1090,19 +1108,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>45066</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1113,13 +1131,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1136,16 +1154,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1159,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1182,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1205,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1228,16 +1246,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F24" s="18">
-        <v>52000</v>
+        <v>40214</v>
       </c>
       <c r="G24" s="18">
         <v>1300000</v>
@@ -1247,56 +1265,171 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="C25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="24">
-        <v>40214</v>
-      </c>
-      <c r="G25" s="24">
+      <c r="D25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="18">
         <v>1300000</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="B30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
